--- a/enfermedades_tomates.xlsx
+++ b/enfermedades_tomates.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28122"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{243FB37C-E620-40A9-B23F-78E8844F0EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TFM_App_info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,127 +51,127 @@
     <t>Tomato___Bacterial_spot</t>
   </si>
   <si>
+    <t xml:space="preserve">Estas lesiones comienzan como pequeñas manchas húmedas; se vuelven más numerosas y se fusionan para formar áreas necróticas en las hojas, dándoles una apariencia marchita; las hojas caen de la planta y puede ocurrir una desfoliación severa. Las manchas maduras tienen una apariencia grasosa y pueden parecer transparentes cuando se sostienen a contraluz. Las infecciones de la fruta comienzan como una ampolla ligeramente elevada y dar una apariencia costrosa. </t>
+  </si>
+  <si>
+    <t>Bacteria Xanthomonas campestris pv. vesicatoria.</t>
+  </si>
+  <si>
+    <t>La aparición de la enfermedad se ve favorecida por las temperaturas cálidas y el clima húmedo; los síntomas son muy similares a otras enfermedades del tomate. La enfermedad se propaga por semillas infectadas, lluvia impulsada por el viento, trasplantes enfermos o suelo infestado; las bacterias ingresan a la planta a través de cualquier abertura natural en las hojas o cualquier abertura causada por una lesión en las hojas.</t>
+  </si>
+  <si>
+    <t>Utilice únicamente semillas certificadas y trasplantes sanos, retire todos los restos de cultivo del área de plantación. No utilice riego por aspersión, en su lugar riegue desde la base de la planta. Rote los cultivos.</t>
+  </si>
+  <si>
     <t>Tomato___Early_blight</t>
   </si>
   <si>
+    <t xml:space="preserve">Los síntomas comienzan con lesiones de forma ovalada con una región clorótica amarilla. El tejido foliar entre las venas se destruye y las infecciones graves pueden hacer que las hojas colapsen por completo, a medida que la enfermedad progresa, las hojas se marchitan gravemente lo que reduce el rendimiento. Los tallos de tomate pueden infectarse con el hongo, lo que provoca el cancro del tallo por Alternaria; los síntomas iniciales del cancro del tallo son el desarrollo de regiones de color marrón oscuro en el tallo; los cancros del tallo pueden agrandarse para rodear todo el tallo, lo que provoca la muerte de toda la planta. Los síntomas de la fruta incluyen pequeñas lesiones negras en forma de V. Las lesiones también pueden aparecer en la fruta como motas oscuras con un patrón de anillos concéntricos y se pueden ver en el campo o pueden desarrollarse durante el tránsito de la fruta al mercado. </t>
+  </si>
+  <si>
+    <t>Hongo Alternaria solani.</t>
+  </si>
+  <si>
+    <t>La enfermedad puede propagarse rápidamente después de que las plantas hayan producido frutos; el viento provoca que las esporas transportadas y el contacto con suelo infectado son causas de la propagación de la enfermedad.</t>
+  </si>
+  <si>
+    <t>Rotación de cultivos y fungicidas preventivos.</t>
+  </si>
+  <si>
     <t>Tomato___Late_blight</t>
   </si>
   <si>
+    <t xml:space="preserve">Los síntomas iniciales de la enfermedad aparecen como áreas empapadas de agua en las hojas que rápidamente cambian a lesiones marrones. Puede aparecer un crecimiento fúngico blanco y esponjoso en las áreas infectadas. A medida que la enfermedad progresa, las hojas se arrugan y se vuelven marrón, toda la planta puede morir. La fruta entera puede infectarse y puede aparecer un crecimiento blanco y velloso durante el clima húmedo. </t>
+  </si>
+  <si>
+    <t>Hongo Phytophthora infestans.</t>
+  </si>
+  <si>
+    <t>Altamente destructivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si hay signos de enfermedad o si es probable que haya lluvias o si se utiliza riego por aspersión, se deben aplicar fungicidas apropiados. </t>
+  </si>
+  <si>
     <t>Tomato___Leaf_Mold</t>
   </si>
   <si>
+    <t xml:space="preserve">Las hojas presentan manchas de color verdoso pálido a amarillo en la superficie superior. A medida que avanza la enfermedad, las manchas pueden unirse y adquirir un color marrón. Las hojas infectadas se marchitan y mueren, pero permanecen unidas a la planta. El hongo también infecta las flores y los frutos. Las flores afectadas se ennegrecen y caen. Los frutos afectados muestran inicialmente una zona irregular negra y lisa en el extremo del tallo, pero más tarde se vuelven hundidos y secos. </t>
+  </si>
+  <si>
+    <t>Hongo Passalora fulva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La enfermedad se ve favorecida por una humedad relativa alta. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evite mojar las hojas y aplicar agua por encima de la cabeza. Siga un espaciado adecuado para proporcionar una buena circulación de aire alrededor de las plantas. Eliminar los restos vegetales infectados y quemarlos. Si la enfermedad es grave, aplicar un fungicida adecuado. </t>
+  </si>
+  <si>
+    <t>Tomato___Spider_mites Two-spotted_spider_mite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hojas con manchas amarillas, telarañas cubriendo las hojas y los ácaros pueden ser visibles como pequeños puntos móviles en las telarañas o en el envés de las hojas. Normalmente no se detectan hasta que hay síntomas visibles en la planta. Finalmente, las hojas se vuelven amarillas y pueden caerse de la planta. </t>
+  </si>
+  <si>
+    <t>Ácaros Tetranychus urticae.</t>
+  </si>
+  <si>
+    <t>Las arañas rojas prosperan en condiciones de polvo. Las plantas con estrés hídrico son más susceptibles de ser atacadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rociar las plantas con un fuerte chorro de agua puede ayudar a reducir la acumulación de poblaciones de araña roja. Si los ácaros se vuelven problemáticos, aplique jabón insecticida a las plantas. Algunos insecticidas químicos pueden aumentar las poblaciones de ácaros al acabar con sus enemigos naturales y favorecer su reproducción. </t>
+  </si>
+  <si>
     <t>Tomato___Septoria_leaf_spot</t>
   </si>
   <si>
-    <t>Tomato___Spider_mites Two-spotted_spider_mite</t>
+    <t xml:space="preserve">Los síntomas pueden aparecer en cualquier fase del desarrollo del tomate y comienzan como pequeñas manchas acuosas o manchas circulares de color blanco grisáceo en el envés de las hojas más viejas. Las manchas tienen un centro grisáceo y un margen oscuro. Los cuerpos del hongo son visibles como pequeñas motas negras en el centro de la mancha y las manchas también pueden aparecer en los tallos, en los frutos y flores. </t>
+  </si>
+  <si>
+    <t>Hongo Septoria lycopersici.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se propaga por salpicaduras de agua. El hongo pasa el invierno en restos vegetales. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asegúrese de que todos los restos del cultivo de tomate se retiran y destruyen en otoño. Evite el riego por encima de la cabeza y clave las plantas para aumentar la circulación de aire a través de las hojas. Aplique el fungicida adecuado si es necesario. </t>
   </si>
   <si>
     <t>Tomato___Target_Spot</t>
   </si>
   <si>
+    <t>El hongo infecta todas las partes de la planta. Las hojas infectadas muestran inicialmente pequeñas manchas puntiformes empapadas de agua. A medida que la enfermedad progresa, las manchas se agrandan hasta convertirse en lesiones necróticas con círculos concéntricos visibles, márgenes oscuros y centros de color marrón claro. Mientras que los frutos presentan manchas marrones ligeramente hundidas al principio, pero más tarde las lesiones adquieren un aspecto de hoyos grandes.</t>
+  </si>
+  <si>
+    <t>Hongo Corynespora cassiicola.</t>
+  </si>
+  <si>
+    <t>Puede causar defoliación significativa.</t>
+  </si>
+  <si>
+    <t>Retirar los restos vegetales y quemarlos. Evitar la aplicación excesiva de fertilizantes nitrogenados. Si la enfermedad es grave, pulverizar fungicidas adecuados.</t>
+  </si>
+  <si>
     <t>Tomato___Tomato_mosaic_virus</t>
   </si>
   <si>
-    <t>Manchas oscuras y elevadas en hojas y frutos, que pueden llegar a necrosarse.</t>
-  </si>
-  <si>
-    <t>Manchas marrones con anillos concéntricos en hojas, a menudo en hojas más viejas.</t>
-  </si>
-  <si>
-    <t>Manchas marrones y acuosas en hojas y frutos, progresando a pudrición.</t>
-  </si>
-  <si>
-    <t>Manchas amarillas en hojas con crecimiento de moho gris en la parte inferior.</t>
-  </si>
-  <si>
-    <t>Manchas pequeñas, circulares y de color marrón en hojas inferiores.</t>
-  </si>
-  <si>
-    <t>Hojas moteadas y amarillentas, presencia de telarañas finas en el envés de las hojas.</t>
-  </si>
-  <si>
-    <t>Lesiones marrones con centros claros en hojas y frutos.</t>
-  </si>
-  <si>
-    <t>Moteado claro y oscuro en las hojas, frutos deformes.</t>
-  </si>
-  <si>
-    <t>Bacteria Xanthomonas campestris pv. vesicatoria.</t>
-  </si>
-  <si>
-    <t>Hongo Alternaria solani.</t>
-  </si>
-  <si>
-    <t>Hongo Phytophthora infestans.</t>
-  </si>
-  <si>
-    <t>Hongo Passalora fulva.</t>
-  </si>
-  <si>
-    <t>Hongo Septoria lycopersici.</t>
-  </si>
-  <si>
-    <t>Ácaros Tetranychus urticae.</t>
-  </si>
-  <si>
-    <t>Hongo Corynespora cassiicola.</t>
-  </si>
-  <si>
-    <t>Virus del mosaico del tomate (ToMV).</t>
-  </si>
-  <si>
-    <t>Las condiciones húmedas favorecen su propagación.</t>
-  </si>
-  <si>
-    <t>Afecta principalmente en condiciones de alta humedad.</t>
-  </si>
-  <si>
-    <t>Altamente destructivo en condiciones húmedas y frescas.</t>
-  </si>
-  <si>
-    <t>Común en invernaderos con alta humedad.</t>
-  </si>
-  <si>
-    <t>Propenso en condiciones cálidas y húmedas.</t>
-  </si>
-  <si>
-    <t>Peor en condiciones secas y cálidas.</t>
-  </si>
-  <si>
-    <t>Puede causar defoliación significativa.</t>
-  </si>
-  <si>
-    <t>El virus puede sobrevivir en el suelo y en las semillas por largos períodos.</t>
-  </si>
-  <si>
-    <t>Aplicar cobre como bactericida, evitar riego por aspersión, y eliminar las plantas afectadas.</t>
-  </si>
-  <si>
-    <t>Rotación de cultivos y fungicidas preventivos.</t>
-  </si>
-  <si>
-    <t>Aplicar fungicidas específicos, eliminar las plantas infectadas y mejorar la ventilación.</t>
-  </si>
-  <si>
-    <t>Mejorar la ventilación y aplicar fungicidas adecuados.</t>
-  </si>
-  <si>
-    <t>Eliminar las hojas infectadas y aplicar fungicidas.</t>
-  </si>
-  <si>
-    <t>Riego adecuado, aumento de la humedad y uso de acaricidas.</t>
-  </si>
-  <si>
-    <t>Aplicar fungicidas y eliminar plantas infectadas.</t>
-  </si>
-  <si>
-    <t>Uso de semillas certificadas y evitar el contacto con plantas contaminadas.</t>
+    <t xml:space="preserve">Pueden aparecer en cualquier etapa de crecimiento y cualquier parte de la planta puede verse afectada, las hojas infectadas generalmente presentan una especie de mosaico verde oscuro; algunas cepas del virus pueden causar moteado amarillo en las hojas y las jóvenes pueden atrofiarse o distorsionarse. Las hojas severamente infectadas pueden tener áreas verdes elevadas y el rendimiento de frutos se reduce en las plantas infectadas; los frutos verdes pueden tener manchas amarillas o puntos necróticos. </t>
+  </si>
+  <si>
+    <t>Virus del mosaico del tomate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El ToMV ingresa a los campos a través de malezas, pimientos o plantas de papa infectadas; el virus también puede transmitirse a los campos de tomates a través de saltamontes, pequeños mamíferos y aves. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tratar térmicamente las semillas a 70 °C durante 4 días o a 82–85 °C durante 24 horas ayudará a eliminar cualquier partícula de virus en la superficie de las semillas. Remojar las semillas durante 15 minutos en 100 g/l de solución de fosfato trisódico (TSP) también puede eliminar partículas de virus. Las semillas deben enjuagarse bien y dejarse secar después de este tratamiento; si se confirma el virus en el campo, las plantas infectadas deben eliminarse y destruirse para limitar una mayor propagación. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -164,23 +181,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -188,43 +209,35 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -262,7 +275,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -296,6 +309,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -330,9 +344,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -505,165 +520,407 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:31">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:31" s="1" customFormat="1">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+    </row>
+    <row r="3" spans="1:31" s="1" customFormat="1">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+    </row>
+    <row r="4" spans="1:31" s="1" customFormat="1">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+    </row>
+    <row r="5" spans="1:31" s="1" customFormat="1">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+    </row>
+    <row r="6" spans="1:31" s="1" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+    </row>
+    <row r="8" spans="1:31" s="1" customFormat="1">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="9" spans="1:31" s="1" customFormat="1">
+      <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
